--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Ret</t>
-  </si>
-  <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +549,10 @@
         <v>3.499619</v>
       </c>
       <c r="I2">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J2">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.87073</v>
+        <v>0.8639135</v>
       </c>
       <c r="N2">
-        <v>7.74146</v>
+        <v>1.727827</v>
       </c>
       <c r="O2">
-        <v>0.4357780537476825</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P2">
-        <v>0.3549718160138305</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q2">
-        <v>4.515360083956667</v>
+        <v>1.007789366318833</v>
       </c>
       <c r="R2">
-        <v>27.09216050374</v>
+        <v>6.046736197913</v>
       </c>
       <c r="S2">
-        <v>0.1402459284963308</v>
+        <v>0.1033108378186453</v>
       </c>
       <c r="T2">
-        <v>0.1192853698054409</v>
+        <v>0.08780130211322461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +611,10 @@
         <v>3.499619</v>
       </c>
       <c r="I3">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J3">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +629,10 @@
         <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.38102391756409</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P3">
-        <v>0.4655560926000913</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q3">
         <v>3.948019349771666</v>
@@ -635,10 +641,10 @@
         <v>35.53217414794499</v>
       </c>
       <c r="S3">
-        <v>0.1226244705040276</v>
+        <v>0.4047206691999324</v>
       </c>
       <c r="T3">
-        <v>0.156446309722838</v>
+        <v>0.5159429905640998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +673,10 @@
         <v>3.499619</v>
       </c>
       <c r="I4">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J4">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.967637</v>
+        <v>0.2890925</v>
       </c>
       <c r="N4">
-        <v>1.935274</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O4">
-        <v>0.1089393909144389</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P4">
-        <v>0.08873878134929972</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q4">
-        <v>1.128786943434333</v>
+        <v>0.3372378685858333</v>
       </c>
       <c r="R4">
-        <v>6.772721660606</v>
+        <v>2.023427211515</v>
       </c>
       <c r="S4">
-        <v>0.03505983354881484</v>
+        <v>0.03457104025123663</v>
       </c>
       <c r="T4">
-        <v>0.02981994026512503</v>
+        <v>0.02938106411251518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,45 +735,45 @@
         <v>3.499619</v>
       </c>
       <c r="I5">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J5">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6595906666666668</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N5">
-        <v>1.978772</v>
+        <v>0.047995</v>
       </c>
       <c r="O5">
-        <v>0.07425863777378852</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P5">
-        <v>0.09073331003677852</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q5">
-        <v>0.7694386764297779</v>
+        <v>0.01866269043388889</v>
       </c>
       <c r="R5">
-        <v>6.924948087868001</v>
+        <v>0.167964213905</v>
       </c>
       <c r="S5">
-        <v>0.02389856835123621</v>
+        <v>0.001913155912447979</v>
       </c>
       <c r="T5">
-        <v>0.03049018528554716</v>
+        <v>0.002438915177806699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +782,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4599265</v>
+        <v>1.166539666666667</v>
       </c>
       <c r="H6">
-        <v>0.919853</v>
+        <v>3.499619</v>
       </c>
       <c r="I6">
-        <v>0.1268860358776102</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J6">
-        <v>0.08832648997713419</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.87073</v>
+        <v>0.004340666666666667</v>
       </c>
       <c r="N6">
-        <v>7.74146</v>
+        <v>0.013022</v>
       </c>
       <c r="O6">
-        <v>0.4357780537476825</v>
+        <v>0.0009523746835961471</v>
       </c>
       <c r="P6">
-        <v>0.3549718160138305</v>
+        <v>0.001040080561116354</v>
       </c>
       <c r="Q6">
-        <v>1.780251301345</v>
+        <v>0.005063559846444445</v>
       </c>
       <c r="R6">
-        <v>7.12100520538</v>
+        <v>0.045572038618</v>
       </c>
       <c r="S6">
-        <v>0.05529414976250361</v>
+        <v>0.0005190773266360577</v>
       </c>
       <c r="T6">
-        <v>0.03135341454931072</v>
+        <v>0.0006617262932680244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H7">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I7">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J7">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.384385</v>
+        <v>0.8639135</v>
       </c>
       <c r="N7">
-        <v>10.153155</v>
+        <v>1.727827</v>
       </c>
       <c r="O7">
-        <v>0.38102391756409</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P7">
-        <v>0.4655560926000913</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q7">
-        <v>1.5565683477025</v>
+        <v>0.0461718570075</v>
       </c>
       <c r="R7">
-        <v>9.339410086214999</v>
+        <v>0.277031142045</v>
       </c>
       <c r="S7">
-        <v>0.04834661447426473</v>
+        <v>0.004733184721437532</v>
       </c>
       <c r="T7">
-        <v>0.04112093554683572</v>
+        <v>0.004022615540241342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H8">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I8">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J8">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.967637</v>
+        <v>3.384385</v>
       </c>
       <c r="N8">
-        <v>1.935274</v>
+        <v>10.153155</v>
       </c>
       <c r="O8">
-        <v>0.1089393909144389</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P8">
-        <v>0.08873878134929972</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q8">
-        <v>0.4450418986805</v>
+        <v>0.180878456325</v>
       </c>
       <c r="R8">
-        <v>1.780167594722</v>
+        <v>1.627906106925</v>
       </c>
       <c r="S8">
-        <v>0.01382288746405451</v>
+        <v>0.01854227231483517</v>
       </c>
       <c r="T8">
-        <v>0.007837985081432023</v>
+        <v>0.0236379215543449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,54 +974,54 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H9">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I9">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J9">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6595906666666668</v>
+        <v>0.2890925</v>
       </c>
       <c r="N9">
-        <v>1.978772</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O9">
-        <v>0.07425863777378852</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P9">
-        <v>0.09073331003677852</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q9">
-        <v>0.3033632267526667</v>
+        <v>0.0154505486625</v>
       </c>
       <c r="R9">
-        <v>1.820179360516</v>
+        <v>0.09270329197499999</v>
       </c>
       <c r="S9">
-        <v>0.009422384176787394</v>
+        <v>0.001583871769664647</v>
       </c>
       <c r="T9">
-        <v>0.008014154799555726</v>
+        <v>0.001346093078840903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.998255</v>
+        <v>0.053445</v>
       </c>
       <c r="H10">
-        <v>5.994765</v>
+        <v>0.160335</v>
       </c>
       <c r="I10">
-        <v>0.5512851632219802</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J10">
-        <v>0.5756317049439148</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.87073</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N10">
-        <v>7.74146</v>
+        <v>0.047995</v>
       </c>
       <c r="O10">
-        <v>0.4357780537476825</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P10">
-        <v>0.3549718160138305</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q10">
-        <v>7.734705576150001</v>
+        <v>0.000855030925</v>
       </c>
       <c r="R10">
-        <v>46.4082334569</v>
+        <v>0.007695278325000001</v>
       </c>
       <c r="S10">
-        <v>0.240237975488848</v>
+        <v>8.765121380994522E-05</v>
       </c>
       <c r="T10">
-        <v>0.2043330316590789</v>
+        <v>0.0001117388678692272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1092,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.998255</v>
+        <v>0.053445</v>
       </c>
       <c r="H11">
-        <v>5.994765</v>
+        <v>0.160335</v>
       </c>
       <c r="I11">
-        <v>0.5512851632219802</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J11">
-        <v>0.5756317049439148</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.384385</v>
+        <v>0.004340666666666667</v>
       </c>
       <c r="N11">
-        <v>10.153155</v>
+        <v>0.013022</v>
       </c>
       <c r="O11">
-        <v>0.38102391756409</v>
+        <v>0.0009523746835961471</v>
       </c>
       <c r="P11">
-        <v>0.4655560926000913</v>
+        <v>0.001040080561116354</v>
       </c>
       <c r="Q11">
-        <v>6.762864248174999</v>
+        <v>0.00023198693</v>
       </c>
       <c r="R11">
-        <v>60.86577823357499</v>
+        <v>0.00208788237</v>
       </c>
       <c r="S11">
-        <v>0.2100528325857977</v>
+        <v>2.378152112163989E-05</v>
       </c>
       <c r="T11">
-        <v>0.2679888473304176</v>
+        <v>3.03169817146177E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H12">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I12">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J12">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.967637</v>
+        <v>0.8639135</v>
       </c>
       <c r="N12">
-        <v>1.935274</v>
+        <v>1.727827</v>
       </c>
       <c r="O12">
-        <v>0.1089393909144389</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P12">
-        <v>0.08873878134929972</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q12">
-        <v>1.933585473435</v>
+        <v>0.79507557644975</v>
       </c>
       <c r="R12">
-        <v>11.60151284061</v>
+        <v>3.180302305799</v>
       </c>
       <c r="S12">
-        <v>0.06005666990156958</v>
+        <v>0.08150505123129025</v>
       </c>
       <c r="T12">
-        <v>0.05108085600274266</v>
+        <v>0.04617940562037736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H13">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I13">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J13">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1243,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6595906666666668</v>
+        <v>3.384385</v>
       </c>
       <c r="N13">
-        <v>1.978772</v>
+        <v>10.153155</v>
       </c>
       <c r="O13">
-        <v>0.07425863777378852</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P13">
-        <v>0.09073331003677852</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q13">
-        <v>1.31803034762</v>
+        <v>3.1147121266225</v>
       </c>
       <c r="R13">
-        <v>11.86227312858</v>
+        <v>18.688272759735</v>
       </c>
       <c r="S13">
-        <v>0.04093768524576491</v>
+        <v>0.3192964027201916</v>
       </c>
       <c r="T13">
-        <v>0.05222896995167564</v>
+        <v>0.2713620420745609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.9203185</v>
+      </c>
+      <c r="H14">
+        <v>1.840637</v>
+      </c>
+      <c r="I14">
+        <v>0.4299944579502328</v>
+      </c>
+      <c r="J14">
+        <v>0.3346253157160749</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2890925</v>
+      </c>
+      <c r="N14">
+        <v>0.5781849999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.06342905349812297</v>
+      </c>
+      <c r="P14">
+        <v>0.04618023185601746</v>
+      </c>
+      <c r="Q14">
+        <v>0.26605717596125</v>
+      </c>
+      <c r="R14">
+        <v>1.064228703845</v>
+      </c>
+      <c r="S14">
+        <v>0.0272741414772217</v>
+      </c>
+      <c r="T14">
+        <v>0.01545307466466138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.9203185</v>
+      </c>
+      <c r="H15">
+        <v>1.840637</v>
+      </c>
+      <c r="I15">
+        <v>0.4299944579502328</v>
+      </c>
+      <c r="J15">
+        <v>0.3346253157160749</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01599833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.047995</v>
+      </c>
+      <c r="O15">
+        <v>0.003510153811948785</v>
+      </c>
+      <c r="P15">
+        <v>0.003833410116017465</v>
+      </c>
+      <c r="Q15">
+        <v>0.01472356213583333</v>
+      </c>
+      <c r="R15">
+        <v>0.08834137281500001</v>
+      </c>
+      <c r="S15">
+        <v>0.001509346685690861</v>
+      </c>
+      <c r="T15">
+        <v>0.00128275607034154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.9203185</v>
+      </c>
+      <c r="H16">
+        <v>1.840637</v>
+      </c>
+      <c r="I16">
+        <v>0.4299944579502328</v>
+      </c>
+      <c r="J16">
+        <v>0.3346253157160749</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.013022</v>
+      </c>
+      <c r="O16">
+        <v>0.0009523746835961471</v>
+      </c>
+      <c r="P16">
+        <v>0.001040080561116354</v>
+      </c>
+      <c r="Q16">
+        <v>0.003994795835666668</v>
+      </c>
+      <c r="R16">
+        <v>0.023968775014</v>
+      </c>
+      <c r="S16">
+        <v>0.0004095158358384497</v>
+      </c>
+      <c r="T16">
+        <v>0.0003480372861337124</v>
       </c>
     </row>
   </sheetData>
